--- a/Class_VI/Result_Final.xlsx
+++ b/Class_VI/Result_Final.xlsx
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE2">
         <v>25</v>
@@ -1542,7 +1542,7 @@
         <v>66.2</v>
       </c>
       <c r="CX2">
-        <v>26.8</v>
+        <v>29.2</v>
       </c>
       <c r="CY2">
         <v>25.8</v>
@@ -1611,7 +1611,7 @@
         <v>155</v>
       </c>
       <c r="DU2">
-        <v>426.0000000000001</v>
+        <v>428.4</v>
       </c>
       <c r="DV2" t="s">
         <v>155</v>
@@ -1620,7 +1620,7 @@
         <v>1000</v>
       </c>
       <c r="DX2">
-        <v>42.6</v>
+        <v>42.84</v>
       </c>
       <c r="DY2">
         <v>9</v>
@@ -1793,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BE3">
         <v>25</v>
@@ -1931,7 +1931,7 @@
         <v>71.8</v>
       </c>
       <c r="CX3">
-        <v>30.8</v>
+        <v>34</v>
       </c>
       <c r="CY3">
         <v>83.8</v>
@@ -2000,7 +2000,7 @@
         <v>155</v>
       </c>
       <c r="DU3">
-        <v>601.2</v>
+        <v>604.4</v>
       </c>
       <c r="DV3" t="s">
         <v>155</v>
@@ -2009,7 +2009,7 @@
         <v>1000</v>
       </c>
       <c r="DX3">
-        <v>60.12</v>
+        <v>60.43999999999999</v>
       </c>
       <c r="DY3">
         <v>4</v>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BE4">
         <v>25</v>
@@ -2320,7 +2320,7 @@
         <v>88</v>
       </c>
       <c r="CX4">
-        <v>68.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="CY4">
         <v>96.8</v>
@@ -2389,7 +2389,7 @@
         <v>155</v>
       </c>
       <c r="DU4">
-        <v>838.48</v>
+        <v>846.88</v>
       </c>
       <c r="DV4" t="s">
         <v>155</v>
@@ -2398,7 +2398,7 @@
         <v>1000</v>
       </c>
       <c r="DX4">
-        <v>83.848</v>
+        <v>84.688</v>
       </c>
       <c r="DY4">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         <v>29.2</v>
       </c>
       <c r="CX5">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="CY5">
         <v>26.8</v>
@@ -2778,7 +2778,7 @@
         <v>155</v>
       </c>
       <c r="DU5">
-        <v>324.6</v>
+        <v>325</v>
       </c>
       <c r="DV5" t="s">
         <v>155</v>
@@ -2787,7 +2787,7 @@
         <v>1000</v>
       </c>
       <c r="DX5">
-        <v>32.45999999999999</v>
+        <v>32.5</v>
       </c>
       <c r="DY5">
         <v>17</v>
@@ -2960,7 +2960,7 @@
         <v>7</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BE6">
         <v>25</v>
@@ -3098,7 +3098,7 @@
         <v>75.8</v>
       </c>
       <c r="CX6">
-        <v>59</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="CY6">
         <v>77.2</v>
@@ -3167,7 +3167,7 @@
         <v>155</v>
       </c>
       <c r="DU6">
-        <v>703.2</v>
+        <v>709.8000000000001</v>
       </c>
       <c r="DV6" t="s">
         <v>155</v>
@@ -3176,7 +3176,7 @@
         <v>1000</v>
       </c>
       <c r="DX6">
-        <v>70.32000000000001</v>
+        <v>70.98</v>
       </c>
       <c r="DY6">
         <v>3</v>
@@ -3349,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BE7">
         <v>25</v>
@@ -3487,7 +3487,7 @@
         <v>55.8</v>
       </c>
       <c r="CX7">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="CY7">
         <v>47.6</v>
@@ -3547,7 +3547,7 @@
         <v>155</v>
       </c>
       <c r="DR7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="DS7" t="s">
         <v>155</v>
@@ -3556,7 +3556,7 @@
         <v>155</v>
       </c>
       <c r="DU7">
-        <v>479.4000000000001</v>
+        <v>480.8000000000001</v>
       </c>
       <c r="DV7" t="s">
         <v>155</v>
@@ -3565,7 +3565,7 @@
         <v>1000</v>
       </c>
       <c r="DX7">
-        <v>47.94000000000001</v>
+        <v>48.08000000000001</v>
       </c>
       <c r="DY7">
         <v>7</v>
@@ -3738,7 +3738,7 @@
         <v>7</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE8">
         <v>25</v>
@@ -3876,7 +3876,7 @@
         <v>44.6</v>
       </c>
       <c r="CX8">
-        <v>33.2</v>
+        <v>36</v>
       </c>
       <c r="CY8">
         <v>51.4</v>
@@ -3945,7 +3945,7 @@
         <v>155</v>
       </c>
       <c r="DU8">
-        <v>409.1999999999999</v>
+        <v>411.9999999999999</v>
       </c>
       <c r="DV8" t="s">
         <v>155</v>
@@ -3954,7 +3954,7 @@
         <v>1000</v>
       </c>
       <c r="DX8">
-        <v>40.91999999999999</v>
+        <v>41.19999999999999</v>
       </c>
       <c r="DY8">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>7</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9">
         <v>25</v>
@@ -4265,7 +4265,7 @@
         <v>33.4</v>
       </c>
       <c r="CX9">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="CY9">
         <v>37.6</v>
@@ -4334,7 +4334,7 @@
         <v>155</v>
       </c>
       <c r="DU9">
-        <v>393.4</v>
+        <v>393.8</v>
       </c>
       <c r="DV9" t="s">
         <v>155</v>
@@ -4343,7 +4343,7 @@
         <v>1000</v>
       </c>
       <c r="DX9">
-        <v>39.34</v>
+        <v>39.38</v>
       </c>
       <c r="DY9">
         <v>13</v>
@@ -4516,7 +4516,7 @@
         <v>7</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BE10">
         <v>25</v>
@@ -4654,7 +4654,7 @@
         <v>45.4</v>
       </c>
       <c r="CX10">
-        <v>27</v>
+        <v>28.4</v>
       </c>
       <c r="CY10">
         <v>48.8</v>
@@ -4723,7 +4723,7 @@
         <v>155</v>
       </c>
       <c r="DU10">
-        <v>479.8</v>
+        <v>481.1999999999999</v>
       </c>
       <c r="DV10" t="s">
         <v>155</v>
@@ -4732,7 +4732,7 @@
         <v>1000</v>
       </c>
       <c r="DX10">
-        <v>47.98</v>
+        <v>48.11999999999999</v>
       </c>
       <c r="DY10">
         <v>6</v>
@@ -4905,7 +4905,7 @@
         <v>7</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE11">
         <v>25</v>
@@ -5043,7 +5043,7 @@
         <v>41.8</v>
       </c>
       <c r="CX11">
-        <v>19</v>
+        <v>19.8</v>
       </c>
       <c r="CY11">
         <v>24.4</v>
@@ -5112,7 +5112,7 @@
         <v>155</v>
       </c>
       <c r="DU11">
-        <v>374.6</v>
+        <v>375.4</v>
       </c>
       <c r="DV11" t="s">
         <v>155</v>
@@ -5121,7 +5121,7 @@
         <v>1000</v>
       </c>
       <c r="DX11">
-        <v>37.46</v>
+        <v>37.53999999999999</v>
       </c>
       <c r="DY11">
         <v>15</v>
@@ -5294,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BE12">
         <v>25</v>
@@ -5432,7 +5432,7 @@
         <v>54.8</v>
       </c>
       <c r="CX12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CY12">
         <v>38.4</v>
@@ -5501,7 +5501,7 @@
         <v>155</v>
       </c>
       <c r="DU12">
-        <v>395.6</v>
+        <v>396.6</v>
       </c>
       <c r="DV12" t="s">
         <v>155</v>
@@ -5510,7 +5510,7 @@
         <v>1000</v>
       </c>
       <c r="DX12">
-        <v>39.56</v>
+        <v>39.66</v>
       </c>
       <c r="DY12">
         <v>12</v>
@@ -5683,7 +5683,7 @@
         <v>7</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE13">
         <v>25</v>
@@ -5821,7 +5821,7 @@
         <v>21.8</v>
       </c>
       <c r="CX13">
-        <v>15.6</v>
+        <v>16.8</v>
       </c>
       <c r="CY13">
         <v>5.8</v>
@@ -5890,7 +5890,7 @@
         <v>155</v>
       </c>
       <c r="DU13">
-        <v>248</v>
+        <v>249.2</v>
       </c>
       <c r="DV13" t="s">
         <v>156</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="DX13">
-        <v>24.8</v>
+        <v>24.92</v>
       </c>
       <c r="DY13">
         <v>21</v>
@@ -6072,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14">
         <v>25</v>
@@ -6210,7 +6210,7 @@
         <v>15.4</v>
       </c>
       <c r="CX14">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="CY14">
         <v>1.6</v>
@@ -6279,7 +6279,7 @@
         <v>156</v>
       </c>
       <c r="DU14">
-        <v>124.6</v>
+        <v>125</v>
       </c>
       <c r="DV14" t="s">
         <v>156</v>
@@ -6288,7 +6288,7 @@
         <v>1000</v>
       </c>
       <c r="DX14">
-        <v>12.46</v>
+        <v>12.5</v>
       </c>
       <c r="DY14">
         <v>24</v>
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15">
         <v>25</v>
@@ -6599,7 +6599,7 @@
         <v>21.2</v>
       </c>
       <c r="CX15">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="CY15">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>156</v>
       </c>
       <c r="DU15">
-        <v>189.4</v>
+        <v>189.8</v>
       </c>
       <c r="DV15" t="s">
         <v>156</v>
@@ -6677,7 +6677,7 @@
         <v>1000</v>
       </c>
       <c r="DX15">
-        <v>18.94</v>
+        <v>18.98</v>
       </c>
       <c r="DY15">
         <v>22</v>
@@ -6850,7 +6850,7 @@
         <v>7</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE16">
         <v>25</v>
@@ -6988,7 +6988,7 @@
         <v>40.2</v>
       </c>
       <c r="CX16">
-        <v>19.2</v>
+        <v>21</v>
       </c>
       <c r="CY16">
         <v>40.8</v>
@@ -7057,7 +7057,7 @@
         <v>155</v>
       </c>
       <c r="DU16">
-        <v>318.4</v>
+        <v>320.2</v>
       </c>
       <c r="DV16" t="s">
         <v>155</v>
@@ -7066,7 +7066,7 @@
         <v>1000</v>
       </c>
       <c r="DX16">
-        <v>31.84</v>
+        <v>32.02</v>
       </c>
       <c r="DY16">
         <v>18</v>
@@ -7239,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE17">
         <v>25</v>
@@ -7377,7 +7377,7 @@
         <v>40.6</v>
       </c>
       <c r="CX17">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="CY17">
         <v>28.4</v>
@@ -7446,7 +7446,7 @@
         <v>155</v>
       </c>
       <c r="DU17">
-        <v>360.9999999999999</v>
+        <v>362.1999999999999</v>
       </c>
       <c r="DV17" t="s">
         <v>155</v>
@@ -7455,7 +7455,7 @@
         <v>1000</v>
       </c>
       <c r="DX17">
-        <v>36.09999999999999</v>
+        <v>36.21999999999999</v>
       </c>
       <c r="DY17">
         <v>16</v>
@@ -7628,7 +7628,7 @@
         <v>7</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BE18">
         <v>25</v>
@@ -7766,7 +7766,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="CX18">
-        <v>60.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="CY18">
         <v>79.40000000000001</v>
@@ -7835,7 +7835,7 @@
         <v>155</v>
       </c>
       <c r="DU18">
-        <v>779.9999999999999</v>
+        <v>788.8</v>
       </c>
       <c r="DV18" t="s">
         <v>155</v>
@@ -7844,7 +7844,7 @@
         <v>1000</v>
       </c>
       <c r="DX18">
-        <v>77.99999999999999</v>
+        <v>78.88</v>
       </c>
       <c r="DY18">
         <v>2</v>
@@ -8017,7 +8017,7 @@
         <v>7</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE19">
         <v>25</v>
@@ -8155,7 +8155,7 @@
         <v>24.8</v>
       </c>
       <c r="CX19">
-        <v>20.6</v>
+        <v>21.8</v>
       </c>
       <c r="CY19">
         <v>32.8</v>
@@ -8224,7 +8224,7 @@
         <v>155</v>
       </c>
       <c r="DU19">
-        <v>312</v>
+        <v>313.2</v>
       </c>
       <c r="DV19" t="s">
         <v>155</v>
@@ -8233,7 +8233,7 @@
         <v>1000</v>
       </c>
       <c r="DX19">
-        <v>31.2</v>
+        <v>31.32</v>
       </c>
       <c r="DY19">
         <v>19</v>
@@ -8406,7 +8406,7 @@
         <v>7</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE20">
         <v>25</v>
@@ -8544,7 +8544,7 @@
         <v>38</v>
       </c>
       <c r="CX20">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="CY20">
         <v>44.8</v>
@@ -8613,7 +8613,7 @@
         <v>155</v>
       </c>
       <c r="DU20">
-        <v>383.4</v>
+        <v>384.2</v>
       </c>
       <c r="DV20" t="s">
         <v>155</v>
@@ -8622,7 +8622,7 @@
         <v>1000</v>
       </c>
       <c r="DX20">
-        <v>38.34</v>
+        <v>38.42</v>
       </c>
       <c r="DY20">
         <v>14</v>
@@ -8795,7 +8795,7 @@
         <v>7</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE21">
         <v>25</v>
@@ -8933,7 +8933,7 @@
         <v>22.6</v>
       </c>
       <c r="CX21">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="CY21">
         <v>28</v>
@@ -9002,7 +9002,7 @@
         <v>156</v>
       </c>
       <c r="DU21">
-        <v>254.6</v>
+        <v>255.4</v>
       </c>
       <c r="DV21" t="s">
         <v>156</v>
@@ -9011,7 +9011,7 @@
         <v>1000</v>
       </c>
       <c r="DX21">
-        <v>25.46</v>
+        <v>25.54</v>
       </c>
       <c r="DY21">
         <v>20</v>
@@ -9184,7 +9184,7 @@
         <v>7</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BE22">
         <v>25</v>
@@ -9322,7 +9322,7 @@
         <v>13.6</v>
       </c>
       <c r="CX22">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="CY22">
         <v>2.8</v>
@@ -9391,7 +9391,7 @@
         <v>156</v>
       </c>
       <c r="DU22">
-        <v>187.6</v>
+        <v>188.6</v>
       </c>
       <c r="DV22" t="s">
         <v>156</v>
@@ -9400,7 +9400,7 @@
         <v>1000</v>
       </c>
       <c r="DX22">
-        <v>18.76</v>
+        <v>18.86</v>
       </c>
       <c r="DY22">
         <v>23</v>
@@ -9573,7 +9573,7 @@
         <v>7</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE23">
         <v>25</v>
@@ -9711,7 +9711,7 @@
         <v>46.2</v>
       </c>
       <c r="CX23">
-        <v>31.8</v>
+        <v>33.6</v>
       </c>
       <c r="CY23">
         <v>74.8</v>
@@ -9780,7 +9780,7 @@
         <v>155</v>
       </c>
       <c r="DU23">
-        <v>515</v>
+        <v>516.8</v>
       </c>
       <c r="DV23" t="s">
         <v>155</v>
@@ -9789,7 +9789,7 @@
         <v>1000</v>
       </c>
       <c r="DX23">
-        <v>51.5</v>
+        <v>51.67999999999999</v>
       </c>
       <c r="DY23">
         <v>5</v>
@@ -9962,7 +9962,7 @@
         <v>7</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE24">
         <v>25</v>
@@ -10100,7 +10100,7 @@
         <v>70.8</v>
       </c>
       <c r="CX24">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="CY24">
         <v>29.2</v>
@@ -10169,7 +10169,7 @@
         <v>155</v>
       </c>
       <c r="DU24">
-        <v>413</v>
+        <v>413.8</v>
       </c>
       <c r="DV24" t="s">
         <v>155</v>
@@ -10178,7 +10178,7 @@
         <v>1000</v>
       </c>
       <c r="DX24">
-        <v>41.3</v>
+        <v>41.38</v>
       </c>
       <c r="DY24">
         <v>10</v>
@@ -10351,7 +10351,7 @@
         <v>7</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE25">
         <v>25</v>
@@ -10489,7 +10489,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="CX25">
-        <v>25.6</v>
+        <v>27.4</v>
       </c>
       <c r="CY25">
         <v>50</v>
@@ -10558,7 +10558,7 @@
         <v>155</v>
       </c>
       <c r="DU25">
-        <v>444.8</v>
+        <v>446.6</v>
       </c>
       <c r="DV25" t="s">
         <v>155</v>
@@ -10567,7 +10567,7 @@
         <v>1000</v>
       </c>
       <c r="DX25">
-        <v>44.48</v>
+        <v>44.66</v>
       </c>
       <c r="DY25">
         <v>8</v>
